--- a/1-Analyse/Protocole Communication/protocole.xlsx
+++ b/1-Analyse/Protocole Communication/protocole.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Luge\1-Analyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoncalvesH\Projet\Chrono-Luge\1-Analyse\Protocole Communication\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -281,9 +281,6 @@
     <t>Pseudo / MDP / N° Luge</t>
   </si>
   <si>
-    <t>Photo / Pseudo / Nom / Prenom / Age / Course (Date / Temps / Vitesse / N° Luge)</t>
-  </si>
-  <si>
     <t>"eedd"</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>"%2"</t>
+  </si>
+  <si>
+    <t>Photo / Pseudo / Nom / Prenom / Age / Descente (Date / Temps / Vitesse / N° Luge) / Statistiques</t>
   </si>
 </sst>
 </file>
@@ -1054,10 +1054,191 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1066,28 +1247,40 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1096,10 +1289,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1114,16 +1307,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1132,197 +1319,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1614,7 +1614,7 @@
   <dimension ref="B1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,118 +1627,118 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="17.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="2:20" ht="17.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="64">
+      <c r="C3" s="70"/>
+      <c r="D3" s="63">
         <v>44216</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="2:20" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="67">
-        <v>44221</v>
-      </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="66">
+        <v>44228</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="2:20" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:20" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41" t="s">
+      <c r="E7" s="85"/>
+      <c r="F7" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41" t="s">
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
     </row>
     <row r="8" spans="2:20" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
     </row>
     <row r="9" spans="2:20" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="42" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
       <c r="I9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="103"/>
       <c r="L9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="32"/>
+      <c r="N9" s="97"/>
       <c r="O9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1748,32 +1748,32 @@
       <c r="Q9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="53"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="55"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="84"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="79"/>
       <c r="I10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="38"/>
+      <c r="K10" s="59"/>
       <c r="L10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="38"/>
+      <c r="N10" s="59"/>
       <c r="O10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1783,45 +1783,45 @@
       <c r="Q10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="56"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="58"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="26"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="72"/>
+      <c r="D11" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="79"/>
       <c r="I11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="36"/>
+      <c r="N11" s="57"/>
       <c r="O11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="35" t="s">
+      <c r="P11" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="36"/>
+      <c r="Q11" s="57"/>
       <c r="R11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1833,34 +1833,34 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
       <c r="I12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="48"/>
+      <c r="K12" s="101"/>
       <c r="L12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="34"/>
+      <c r="M12" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="99"/>
       <c r="O12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="85" t="s">
+      <c r="P12" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" s="48"/>
+      <c r="Q12" s="101"/>
       <c r="R12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1872,24 +1872,24 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="104" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
       <c r="I13" s="12" t="s">
         <v>0</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>20</v>
@@ -1897,10 +1897,10 @@
       <c r="L13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="35" t="s">
+      <c r="M13" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="36"/>
+      <c r="N13" s="57"/>
       <c r="O13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1910,23 +1910,23 @@
       <c r="Q13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="87"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="18"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="55"/>
       <c r="I14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>15</v>
@@ -1934,10 +1934,10 @@
       <c r="L14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="37" t="s">
+      <c r="M14" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="48"/>
+      <c r="N14" s="101"/>
       <c r="O14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1947,188 +1947,219 @@
       <c r="Q14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="88"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="20"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="104" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="86" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="16" t="s">
         <v>0</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="36"/>
+      <c r="L15" s="57"/>
       <c r="M15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="80"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="81"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="23"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="55"/>
       <c r="I16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="59"/>
       <c r="M16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="58"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="26"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="72"/>
+      <c r="D17" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="27" t="s">
+      <c r="E17" s="75"/>
+      <c r="F17" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="28"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="93"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="78"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="95"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="72" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="75"/>
-      <c r="T19" s="76"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="39"/>
     </row>
     <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="30"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="41"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="R9:T10"/>
+    <mergeCell ref="I7:T8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:H8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="R13:T14"/>
     <mergeCell ref="O15:T16"/>
     <mergeCell ref="B19:C20"/>
@@ -2140,42 +2171,11 @@
     <mergeCell ref="F15:H16"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="R9:T10"/>
-    <mergeCell ref="I7:T8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:H8"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:H10"/>
     <mergeCell ref="I17:T18"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J11:K11"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="D17:E18"/>
     <mergeCell ref="F17:H18"/>
     <mergeCell ref="F13:H14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="B13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/1-Analyse/Protocole Communication/protocole.xlsx
+++ b/1-Analyse/Protocole Communication/protocole.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoncalvesH\Projet\Chrono-Luge\1-Analyse\Protocole Communication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugog\Desktop\Cours\IR\2ème\ChronoLuge\1-Analyse\Protocole Communication\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6A6551-50EE-400E-972E-B4626DADD17F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hugog</author>
   </authors>
   <commentList>
-    <comment ref="J9" authorId="0" shapeId="0">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="0" shapeId="0">
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0" shapeId="0">
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="0" shapeId="0">
+    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0" shapeId="0">
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0" shapeId="0">
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="0" shapeId="0">
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M14" authorId="0" shapeId="0">
+    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K15" authorId="0" shapeId="0">
+    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K16" authorId="0" shapeId="0">
+    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -278,9 +279,6 @@
     <t>"CCCCCCCC"</t>
   </si>
   <si>
-    <t>Pseudo / MDP / N° Luge</t>
-  </si>
-  <si>
     <t>"eedd"</t>
   </si>
   <si>
@@ -302,13 +300,16 @@
     <t>"%2"</t>
   </si>
   <si>
-    <t>Photo / Pseudo / Nom / Prenom / Age / Descente (Date / Temps / Vitesse / N° Luge) / Statistiques</t>
+    <t>Pseudo / MDP / Contenu QRCode</t>
+  </si>
+  <si>
+    <t>Photo / Pseudo / Nom / Prenom / Age / Descentes (Date / Temps / Vitesse) / Statistiques</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1058,6 +1059,177 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1079,15 +1251,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,30 +1296,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1175,114 +1314,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1293,36 +1324,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1610,11 +1611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,118 +1628,118 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="17.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="2:20" ht="17.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="63">
+      <c r="C3" s="73"/>
+      <c r="D3" s="66">
         <v>44216</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="2:20" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="66">
-        <v>44228</v>
-      </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="69">
+        <v>44245</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="2:20" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:20" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85" t="s">
+      <c r="E7" s="52"/>
+      <c r="F7" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85" t="s">
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
     </row>
     <row r="8" spans="2:20" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
     </row>
     <row r="9" spans="2:20" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
       <c r="I9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="102" t="s">
+      <c r="J9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="103"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="96" t="s">
+      <c r="M9" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="97"/>
+      <c r="N9" s="60"/>
       <c r="O9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1748,32 +1749,32 @@
       <c r="Q9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="82"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="84"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="48"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="79"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="104" t="s">
+      <c r="J10" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="59"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="58" t="s">
+      <c r="M10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="59"/>
+      <c r="N10" s="33"/>
       <c r="O10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1783,45 +1784,45 @@
       <c r="Q10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="24"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="26"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="75" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="79"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="57"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="56" t="s">
+      <c r="M11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="57"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="56" t="s">
+      <c r="P11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="57"/>
+      <c r="Q11" s="30"/>
       <c r="R11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1833,34 +1834,34 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
       <c r="I12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="105" t="s">
+      <c r="J12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="101"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="99"/>
+      <c r="M12" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="62"/>
       <c r="O12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="100" t="s">
+      <c r="P12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" s="101"/>
+      <c r="Q12" s="26"/>
       <c r="R12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1872,24 +1873,24 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="46" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="97"/>
+      <c r="H13" s="98"/>
       <c r="I13" s="12" t="s">
         <v>0</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>20</v>
@@ -1897,10 +1898,10 @@
       <c r="L13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="56" t="s">
+      <c r="M13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="57"/>
+      <c r="N13" s="30"/>
       <c r="O13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1910,23 +1911,23 @@
       <c r="Q13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="18"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="75"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>15</v>
@@ -1934,10 +1935,10 @@
       <c r="L14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="58" t="s">
+      <c r="M14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="101"/>
+      <c r="N14" s="26"/>
       <c r="O14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1947,177 +1948,177 @@
       <c r="Q14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="20"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="77"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="46" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="97"/>
+      <c r="H15" s="98"/>
       <c r="I15" s="16" t="s">
         <v>0</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="57"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="21"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="23"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="80"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="101"/>
       <c r="I16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="59"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="24"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="26"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="51"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="75" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="93"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="103"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="95"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="105"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="82"/>
+      <c r="D19" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="38" t="s">
+      <c r="E19" s="85"/>
+      <c r="F19" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="88"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="39"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="93"/>
     </row>
     <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="41"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="95"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K31" s="15"/>
@@ -2129,37 +2130,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="R9:T10"/>
-    <mergeCell ref="I7:T8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:H8"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="R13:T14"/>
     <mergeCell ref="O15:T16"/>
     <mergeCell ref="B19:C20"/>
@@ -2176,6 +2146,37 @@
     <mergeCell ref="D17:E18"/>
     <mergeCell ref="F17:H18"/>
     <mergeCell ref="F13:H14"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="R9:T10"/>
+    <mergeCell ref="I7:T8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:H8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="P11:Q11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
